--- a/kb_tc.xlsx
+++ b/kb_tc.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC800A9-C22B-4277-A84D-85D477F59E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59FEA46-B30E-4FB1-9547-132F7DC31921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0F345599-DA1D-49B6-9822-A218968CE839}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="6" xr2:uid="{0F345599-DA1D-49B6-9822-A218968CE839}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Manula CVE" sheetId="2" r:id="rId2"/>
+    <sheet name="Import s-bom" sheetId="3" r:id="rId3"/>
+    <sheet name="delete CPE" sheetId="4" r:id="rId4"/>
+    <sheet name="rescan" sheetId="5" r:id="rId5"/>
+    <sheet name="Cve operations" sheetId="6" r:id="rId6"/>
+    <sheet name="inheritence" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="604">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -332,6 +338,1879 @@
   </si>
   <si>
     <t>System rejects invalid version and logs errors.</t>
+  </si>
+  <si>
+    <t>Open Manual CVE Form</t>
+  </si>
+  <si>
+    <t>Click the "Manual CVE" button.</t>
+  </si>
+  <si>
+    <t>Manual CVE form opens successfully.</t>
+  </si>
+  <si>
+    <t>Enter Valid CVE ID (Existing in NVD)</t>
+  </si>
+  <si>
+    <t>Enter a valid CVE ID (e.g., CVE-2024-1234).</t>
+  </si>
+  <si>
+    <t>CVE details auto-populate; Analysis Priority field enabled.</t>
+  </si>
+  <si>
+    <t>Enter CVE ID Already Present in Current Release</t>
+  </si>
+  <si>
+    <t>Enter a CVE ID already in the current release.</t>
+  </si>
+  <si>
+    <t>Error: "CVE ID already exists in this release."</t>
+  </si>
+  <si>
+    <t>Enter Invalid CVE ID Format</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter an invalid CVE ID format like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>CVE-INVALID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Error: "Invalid CVE ID format."</t>
+  </si>
+  <si>
+    <t>Enter Non-Existent CVE ID</t>
+  </si>
+  <si>
+    <t>Enter a CVE ID not present in NVD.</t>
+  </si>
+  <si>
+    <t>Error: "CVE not found in NVD database."</t>
+  </si>
+  <si>
+    <t>Verify Analysis Priority Editable After Auto-Populate</t>
+  </si>
+  <si>
+    <t>Enter a valid CVE ID and wait for auto-population. Modify the Analysis Priority field.</t>
+  </si>
+  <si>
+    <t>System allows editing Analysis Priority only.</t>
+  </si>
+  <si>
+    <t>Verify Non-Editable Fields After Auto-Population</t>
+  </si>
+  <si>
+    <t>Enter a valid CVE ID and check all other fields (e.g., description, score).</t>
+  </si>
+  <si>
+    <t>All fields except Analysis Priority remain non-editable.</t>
+  </si>
+  <si>
+    <t>Save Form with Valid CVE Details</t>
+  </si>
+  <si>
+    <t>Enter valid CVE ID, auto-populate details, and save.</t>
+  </si>
+  <si>
+    <t>CVE is added to the current release dashboard.</t>
+  </si>
+  <si>
+    <t>Save Form Without Entering CVE ID</t>
+  </si>
+  <si>
+    <t>Leave the CVE ID field blank and attempt to save.</t>
+  </si>
+  <si>
+    <t>Save fails: "CVE ID is mandatory."</t>
+  </si>
+  <si>
+    <t>Save Form with Empty Analysis Priority</t>
+  </si>
+  <si>
+    <t>Enter valid CVE ID, do not edit Analysis Priority, and save.</t>
+  </si>
+  <si>
+    <t>System saves successfully with default CVSS Priority.</t>
+  </si>
+  <si>
+    <t>Save Form After Modifying Analysis Priority</t>
+  </si>
+  <si>
+    <t>Enter valid CVE ID, edit the Analysis Priority field, and save.</t>
+  </si>
+  <si>
+    <t>Modified Analysis Priority is saved successfully.</t>
+  </si>
+  <si>
+    <t>Verify Journey Logging After Save</t>
+  </si>
+  <si>
+    <t>Save a valid CVE entry and check journey logs.</t>
+  </si>
+  <si>
+    <t>Journey logs capture changes, including CVE addition.</t>
+  </si>
+  <si>
+    <t>Duplicate CVE ID Across Different Releases</t>
+  </si>
+  <si>
+    <t>Enter a CVE ID already present in a different release.</t>
+  </si>
+  <si>
+    <t>System allows saving CVE in the current release.</t>
+  </si>
+  <si>
+    <t>Cancel Manual CVE Form</t>
+  </si>
+  <si>
+    <t>Enter data in CVE ID and click “Cancel.”</t>
+  </si>
+  <si>
+    <t>Form closes without saving any data.</t>
+  </si>
+  <si>
+    <t>Save Form with Special Characters in CVE ID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter special characters in CVE ID field like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>CVE-2024-@!#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Save Form with Analysis Priority as Blank</t>
+  </si>
+  <si>
+    <t>Enter valid CVE ID, clear Analysis Priority, and attempt to save.</t>
+  </si>
+  <si>
+    <t>Save fails with error: "Analysis Priority is required."</t>
+  </si>
+  <si>
+    <t>Verify CVE Details Display After Save</t>
+  </si>
+  <si>
+    <t>Save a valid CVE entry and check the dashboard display.</t>
+  </si>
+  <si>
+    <t>Saved CVE appears correctly in the release dashboard.</t>
+  </si>
+  <si>
+    <t>Verify Form Resets After Save</t>
+  </si>
+  <si>
+    <t>Enter and save a CVE. Reopen the form.</t>
+  </si>
+  <si>
+    <t>Form fields are reset and blank.</t>
+  </si>
+  <si>
+    <t>Verify Analysis Priority Validation</t>
+  </si>
+  <si>
+    <t>Enter non-numeric input like "High" in the Analysis Priority field.</t>
+  </si>
+  <si>
+    <t>Error: "Analysis Priority must be a numeric value."</t>
+  </si>
+  <si>
+    <t>Verify Field Behavior Without Internet Connection</t>
+  </si>
+  <si>
+    <t>Enter valid CVE ID when no network is available.</t>
+  </si>
+  <si>
+    <t>Error: "Unable to fetch CVE details. Check your connection."</t>
+  </si>
+  <si>
+    <t>Verify Maximum Length for Analysis Priority Field</t>
+  </si>
+  <si>
+    <t>Enter maximum allowable characters in the Analysis Priority field (e.g., 999.99).</t>
+  </si>
+  <si>
+    <t>System accepts and saves the input successfully.</t>
+  </si>
+  <si>
+    <t>Verify Dashboard Updates After Manual CVE Addition</t>
+  </si>
+  <si>
+    <t>Save a valid CVE and refresh the release dashboard.</t>
+  </si>
+  <si>
+    <t>CVE persists and appears in the current release.</t>
+  </si>
+  <si>
+    <t>TC_023</t>
+  </si>
+  <si>
+    <t>Verify Save After Refreshing Browser</t>
+  </si>
+  <si>
+    <t>Open the form, enter valid CVE ID, refresh the browser, and try saving.</t>
+  </si>
+  <si>
+    <t>Form resets; unsaved data is lost.</t>
+  </si>
+  <si>
+    <t>TC_024</t>
+  </si>
+  <si>
+    <t>Enter CVE ID in Lowercase</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter a CVE ID in lowercase (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>cve-2024-1234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>System accepts and auto-populates details.</t>
+  </si>
+  <si>
+    <t>TC_025</t>
+  </si>
+  <si>
+    <t>Verify Handling of Large Data in Auto-Populate Fields</t>
+  </si>
+  <si>
+    <t>Enter valid CVE ID where auto-populated description or score is very large.</t>
+  </si>
+  <si>
+    <t>System handles large data without crashing or truncation.</t>
+  </si>
+  <si>
+    <t>Open SW-BOM Dashboard</t>
+  </si>
+  <si>
+    <t>Navigate to the SW-BOM dashboard for a release.</t>
+  </si>
+  <si>
+    <t>Dashboard displays CPEs linked to the release.</t>
+  </si>
+  <si>
+    <t>Import XML with Valid CPEs</t>
+  </si>
+  <si>
+    <t>Import an XML file containing valid CPE names in NVD format.</t>
+  </si>
+  <si>
+    <t>New CPEs are parsed, added to the release, and displayed.</t>
+  </si>
+  <si>
+    <t>Import XML with Duplicate CPEs</t>
+  </si>
+  <si>
+    <t>Import an XML file with CPEs already present in the release.</t>
+  </si>
+  <si>
+    <t>Existing CPEs are skipped; no duplicates are added.</t>
+  </si>
+  <si>
+    <t>Import XML with Mix of Valid and Duplicate CPEs</t>
+  </si>
+  <si>
+    <t>Import an XML file with some new CPEs and some existing ones.</t>
+  </si>
+  <si>
+    <t>New CPEs are added; existing CPEs are skipped.</t>
+  </si>
+  <si>
+    <t>Import XML with Invalid CPE Format</t>
+  </si>
+  <si>
+    <t>Import an XML file containing CPEs with incorrect format (non-NVD standard).</t>
+  </si>
+  <si>
+    <t>Error: "Invalid CPE format in the file. Check input data."</t>
+  </si>
+  <si>
+    <t>Import Empty XML File</t>
+  </si>
+  <si>
+    <t>Attempt to import an XML file with no CPE data.</t>
+  </si>
+  <si>
+    <t>Error: "No valid CPEs found in the file."</t>
+  </si>
+  <si>
+    <t>Import XML with Missing Mandatory Nodes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Import an XML file missing the required </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;CPE&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tags.</t>
+    </r>
+  </si>
+  <si>
+    <t>Error: "Missing mandatory node: &lt;CPE&gt;."</t>
+  </si>
+  <si>
+    <t>Verify Case Sensitivity in CPEs</t>
+  </si>
+  <si>
+    <r>
+      <t>Import XML with CPEs having different case sensitivity (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>cpe:/a:test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>CPE:/A:TEST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>System considers them identical and skips duplicates.</t>
+  </si>
+  <si>
+    <t>Verify Parsing for Large XML File</t>
+  </si>
+  <si>
+    <t>Import an XML file containing thousands of valid CPE entries.</t>
+  </si>
+  <si>
+    <t>System parses and adds all new CPEs without performance lag.</t>
+  </si>
+  <si>
+    <t>Import XML with Special Characters in CPE Names</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Import an XML file containing CPEs with special characters (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>cpe:/a:test!@#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Error: "Invalid CPE format."</t>
+  </si>
+  <si>
+    <t>Verify Release Updates After CPE Import</t>
+  </si>
+  <si>
+    <t>Import valid CPEs and check the release dashboard.</t>
+  </si>
+  <si>
+    <t>Newly added CPEs appear in the SW-BOM dashboard.</t>
+  </si>
+  <si>
+    <t>Verify Journey Logging for Imported CPEs</t>
+  </si>
+  <si>
+    <t>Import valid CPEs and check the journey log for the release.</t>
+  </si>
+  <si>
+    <t>Journey log records CPE addition with timestamps.</t>
+  </si>
+  <si>
+    <t>Verify Duplicate Check Across Different Releases</t>
+  </si>
+  <si>
+    <t>Import an XML file containing CPEs already present in a different release.</t>
+  </si>
+  <si>
+    <t>System adds CPEs to the current release; no cross-release check.</t>
+  </si>
+  <si>
+    <t>Import XML When Network is Unavailable</t>
+  </si>
+  <si>
+    <t>Attempt to import an XML file with valid CPEs while network is down.</t>
+  </si>
+  <si>
+    <t>Error: "Network unavailable. Unable to process file."</t>
+  </si>
+  <si>
+    <t>Verify XML File with Invalid Structure</t>
+  </si>
+  <si>
+    <t>Import an XML file where nodes are misplaced or improperly closed.</t>
+  </si>
+  <si>
+    <t>Error: "Invalid XML structure. Check file format."</t>
+  </si>
+  <si>
+    <t>Import XML File with Blank Nodes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Import an XML file containing empty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;CPE&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nodes.</t>
+    </r>
+  </si>
+  <si>
+    <t>Empty nodes are skipped; valid CPEs are added.</t>
+  </si>
+  <si>
+    <t>Verify Parsing Time for Large XML</t>
+  </si>
+  <si>
+    <t>Import a large XML file and measure parsing performance.</t>
+  </si>
+  <si>
+    <t>Parsing completes within an acceptable duration.</t>
+  </si>
+  <si>
+    <t>Import Corrupted XML File</t>
+  </si>
+  <si>
+    <t>Attempt to upload a corrupted XML file.</t>
+  </si>
+  <si>
+    <t>Error: "Unable to read the file. Ensure the XML file is valid."</t>
+  </si>
+  <si>
+    <t>Verify SW-BOM Dashboard Data Persistence</t>
+  </si>
+  <si>
+    <t>Import valid CPEs and check SW-BOM dashboard data after logging out and logging back in.</t>
+  </si>
+  <si>
+    <t>CPEs persist in the dashboard.</t>
+  </si>
+  <si>
+    <t>Import XML File with Duplicate Entries Within File</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Import an XML file containing the same </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;CPE&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> node multiple times.</t>
+    </r>
+  </si>
+  <si>
+    <t>System adds only one instance of each CPE.</t>
+  </si>
+  <si>
+    <t>Verify Cancel Button During XML Import</t>
+  </si>
+  <si>
+    <t>Start importing an XML file and click "Cancel" before completion.</t>
+  </si>
+  <si>
+    <t>Import is canceled; no CPEs are added.</t>
+  </si>
+  <si>
+    <t>Verify File Handling for Non-XML Format</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attempt to import a file in non-XML formats (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Error: "Unsupported file format. Please upload XML files."</t>
+  </si>
+  <si>
+    <t>Verify Maximum Allowed CPE Length</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Import an XML file containing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;CPE&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nodes with the maximum allowable character limit.</t>
+    </r>
+  </si>
+  <si>
+    <t>System accepts and parses the data correctly.</t>
+  </si>
+  <si>
+    <t>Verify Journey Logging for Skipped Duplicate CPEs</t>
+  </si>
+  <si>
+    <t>Import an XML file containing duplicates and check journey logs.</t>
+  </si>
+  <si>
+    <t>System logs skipped duplicates with appropriate messages.</t>
+  </si>
+  <si>
+    <t>Verify XML Parsing Error Handling</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Import XML with invalid tags (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;INVALID&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;CPE&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Error: "Invalid XML tags. Expected &lt;CPE&gt;."</t>
+  </si>
+  <si>
+    <t>TC_026</t>
+  </si>
+  <si>
+    <t>Verify Dashboard Updates After Multiple XML Imports</t>
+  </si>
+  <si>
+    <t>Perform multiple XML imports containing valid, invalid, and duplicate CPEs.</t>
+  </si>
+  <si>
+    <t>Dashboard updates correctly without duplicates.</t>
+  </si>
+  <si>
+    <t>TC_027</t>
+  </si>
+  <si>
+    <t>Verify Feedback on XML Parsing Progress</t>
+  </si>
+  <si>
+    <t>Import a large XML file and observe the UI for progress feedback.</t>
+  </si>
+  <si>
+    <t>User sees a progress bar or spinner until completion.</t>
+  </si>
+  <si>
+    <t>TC_028</t>
+  </si>
+  <si>
+    <t>Verify Skipped CPE Count Feedback</t>
+  </si>
+  <si>
+    <t>Import an XML file with duplicates and invalid entries.</t>
+  </si>
+  <si>
+    <t>System displays count of skipped and added CPEs.</t>
+  </si>
+  <si>
+    <t>TC_029</t>
+  </si>
+  <si>
+    <t>Verify XML Parsing for Edge Case Content</t>
+  </si>
+  <si>
+    <t>Import XML with edge-case CPE values (e.g., whitespace-only, numbers, and non-standard input).</t>
+  </si>
+  <si>
+    <t>System handles edge cases gracefully without crashing.</t>
+  </si>
+  <si>
+    <t>TC_030</t>
+  </si>
+  <si>
+    <t>Verify Duplicate Entries with Trailing Spaces</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Import XML file with CPEs having trailing spaces (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">cpe:/a:test </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>System trims spaces and processes CPEs correctly.</t>
+  </si>
+  <si>
+    <t>Verify Delete Button Visibility</t>
+  </si>
+  <si>
+    <t>Open the SW-BOM dashboard and view the CPE table. Check if the "Delete" button is visible for each row.</t>
+  </si>
+  <si>
+    <t>"Delete" button appears for every CPE row.</t>
+  </si>
+  <si>
+    <t>Verify Deletion of a Single CPE</t>
+  </si>
+  <si>
+    <t>Click the "Delete" button for one specific CPE row. Confirm deletion.</t>
+  </si>
+  <si>
+    <t>Selected CPE is removed from the table.</t>
+  </si>
+  <si>
+    <t>Verify Dashboard Refresh After Deletion</t>
+  </si>
+  <si>
+    <t>Delete a CPE and check if the table updates instantly.</t>
+  </si>
+  <si>
+    <t>Table refreshes, and the deleted CPE no longer appears.</t>
+  </si>
+  <si>
+    <t>Verify Journey Log for CPE Deletion</t>
+  </si>
+  <si>
+    <t>Delete a CPE and check the journey log.</t>
+  </si>
+  <si>
+    <t>Journey log records "CPE Deleted" with timestamp and user ID.</t>
+  </si>
+  <si>
+    <t>Verify Deletion of Multiple CPEs (One by One)</t>
+  </si>
+  <si>
+    <t>Delete several CPEs one at a time.</t>
+  </si>
+  <si>
+    <t>Each selected CPE is deleted and does not reappear.</t>
+  </si>
+  <si>
+    <t>Verify Deletion of Non-Existent CPE</t>
+  </si>
+  <si>
+    <t>Simulate a scenario where a CPE is deleted but reattempt deletion (CPE no longer exists).</t>
+  </si>
+  <si>
+    <t>Error: "CPE already deleted or does not exist."</t>
+  </si>
+  <si>
+    <t>Verify UI Behavior After CPE Deletion</t>
+  </si>
+  <si>
+    <t>Delete a CPE and observe the table layout.</t>
+  </si>
+  <si>
+    <t>Table adjusts dynamically; no empty rows or layout issues.</t>
+  </si>
+  <si>
+    <t>Verify Deletion Confirmation Popup</t>
+  </si>
+  <si>
+    <t>Click "Delete" on a CPE and check if a confirmation popup appears.</t>
+  </si>
+  <si>
+    <t>Confirmation popup appears with "Yes" and "Cancel" options.</t>
+  </si>
+  <si>
+    <t>Verify Deletion Cancelation Behavior</t>
+  </si>
+  <si>
+    <t>Click "Delete" → Select "Cancel" on the confirmation popup.</t>
+  </si>
+  <si>
+    <t>CPE is not deleted; it remains visible in the table.</t>
+  </si>
+  <si>
+    <t>Verify Deletion with Network Failure</t>
+  </si>
+  <si>
+    <t>Simulate network failure and attempt to delete a CPE.</t>
+  </si>
+  <si>
+    <t>Error: "Unable to delete CPE. Network issue detected."</t>
+  </si>
+  <si>
+    <t>Verify Delete Option for Last Remaining CPE</t>
+  </si>
+  <si>
+    <t>Delete the last remaining CPE in the table.</t>
+  </si>
+  <si>
+    <t>Table becomes empty; no errors occur.</t>
+  </si>
+  <si>
+    <t>Verify Non-Functional Delete Button</t>
+  </si>
+  <si>
+    <t>Simulate a scenario where the delete button is non-functional (e.g., disabled or broken).</t>
+  </si>
+  <si>
+    <t>Delete button does not respond; error message is displayed.</t>
+  </si>
+  <si>
+    <t>Verify Unauthorized User Cannot Delete CPE</t>
+  </si>
+  <si>
+    <t>Login as a user with read-only access and attempt to delete a CPE.</t>
+  </si>
+  <si>
+    <t>Error: "You do not have permission to delete CPEs."</t>
+  </si>
+  <si>
+    <t>Verify Deletion on Duplicate CPE Entries</t>
+  </si>
+  <si>
+    <t>Delete a duplicate CPE entry from the table.</t>
+  </si>
+  <si>
+    <t>Only the selected instance is deleted; others remain intact.</t>
+  </si>
+  <si>
+    <t>Verify Table Pagination After Deletion</t>
+  </si>
+  <si>
+    <t>Delete a CPE when the table is paginated (e.g., multiple pages of CPEs).</t>
+  </si>
+  <si>
+    <t>Deleted CPE is removed, and pagination adjusts correctly.</t>
+  </si>
+  <si>
+    <t>Verify CPE Deletion with Concurrent User Actions</t>
+  </si>
+  <si>
+    <t>Two users simultaneously delete the same CPE.</t>
+  </si>
+  <si>
+    <t>First deletion succeeds; second user sees "CPE already deleted" error.</t>
+  </si>
+  <si>
+    <t>Verify Empty Table State After All CPEs Are Deleted</t>
+  </si>
+  <si>
+    <t>Delete all CPEs in the table.</t>
+  </si>
+  <si>
+    <t>Table displays a "No CPEs found" message.</t>
+  </si>
+  <si>
+    <t>Verify Journey Log for Cancelled Deletion Action</t>
+  </si>
+  <si>
+    <t>Cancel a delete action and check journey logs.</t>
+  </si>
+  <si>
+    <t>No entry is logged since deletion did not occur.</t>
+  </si>
+  <si>
+    <t>Verify Deleted CPE Does Not Reappear After Reload</t>
+  </si>
+  <si>
+    <t>Delete a CPE, reload the SW-BOM dashboard, and check the table.</t>
+  </si>
+  <si>
+    <t>Deleted CPE does not reappear.</t>
+  </si>
+  <si>
+    <t>Verify Performance for Bulk CPE Deletions</t>
+  </si>
+  <si>
+    <t>Delete CPEs one after another (large number of rows). Measure performance.</t>
+  </si>
+  <si>
+    <t>System performance remains acceptable; no crashes occur.</t>
+  </si>
+  <si>
+    <t>Verify Browser Back Button After Deletion</t>
+  </si>
+  <si>
+    <t>Delete a CPE, press the browser back button, and return to the dashboard.</t>
+  </si>
+  <si>
+    <t>Deleted CPE does not appear in the table.</t>
+  </si>
+  <si>
+    <t>Verify Error Message for Backend Deletion Failure</t>
+  </si>
+  <si>
+    <t>Simulate backend failure (server error) while deleting a CPE.</t>
+  </si>
+  <si>
+    <t>Error: "Unable to delete CPE. Please try again later."</t>
+  </si>
+  <si>
+    <t>Verify Deletion Logs in Audit Trail</t>
+  </si>
+  <si>
+    <t>Check backend logs or audit trail after deleting a CPE.</t>
+  </si>
+  <si>
+    <t>Audit trail records CPE deletion with timestamp and user ID.</t>
+  </si>
+  <si>
+    <t>Verify Deletion of CPE with Special Characters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delete a CPE containing special characters (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>cpe:/a:test!@#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>CPE is successfully deleted.</t>
+  </si>
+  <si>
+    <t>Verify Accessibility for Delete Button</t>
+  </si>
+  <si>
+    <t>Check keyboard accessibility for the "Delete" button (e.g., Tab navigation and Enter key).</t>
+  </si>
+  <si>
+    <t>User can focus and trigger delete action via keyboard.</t>
+  </si>
+  <si>
+    <t>Verify Tooltip on Delete Button Hover</t>
+  </si>
+  <si>
+    <t>Hover over the "Delete" button in any row.</t>
+  </si>
+  <si>
+    <t>Tooltip displays "Delete this CPE."</t>
+  </si>
+  <si>
+    <t>Verify Deletion Logs in Case of Undo Feature</t>
+  </si>
+  <si>
+    <t>If an "Undo" option exists, verify that deletion logs update after undoing a delete.</t>
+  </si>
+  <si>
+    <t>Logs reflect the final state accurately.</t>
+  </si>
+  <si>
+    <t>Verify rescan operation triggers correctly</t>
+  </si>
+  <si>
+    <t>Open a release → Click on the rescan operation button.</t>
+  </si>
+  <si>
+    <t>Rescan process starts, and status shows "In Progress."</t>
+  </si>
+  <si>
+    <t>Verify extraction of all CPEs during rescan</t>
+  </si>
+  <si>
+    <t>Trigger rescan operation.</t>
+  </si>
+  <si>
+    <t>Application extracts all CPEs linked with the release.</t>
+  </si>
+  <si>
+    <t>Verify retrieval of CVEs from NVD database</t>
+  </si>
+  <si>
+    <t>Application fetches CVEs corresponding to extracted CPEs from the NVD database.</t>
+  </si>
+  <si>
+    <t>Verify new CVEs are added to the release</t>
+  </si>
+  <si>
+    <t>Trigger rescan with new CVEs in NVD not present in the release.</t>
+  </si>
+  <si>
+    <t>New CVEs are added to the release, marked with a visible "New" identification.</t>
+  </si>
+  <si>
+    <t>Verify manually deleted CVE is re-detected during rescan</t>
+  </si>
+  <si>
+    <t>Manually delete an existing CVE entry → Trigger rescan.</t>
+  </si>
+  <si>
+    <t>Deleted CVE reappears in the release with a "Re-added in Rescan" identification.</t>
+  </si>
+  <si>
+    <t>Verify fields for re-added CVEs remain unchanged</t>
+  </si>
+  <si>
+    <t>Delete a CVE → Trigger rescan → Verify NVD fields (description, score, priority) have no updates.</t>
+  </si>
+  <si>
+    <t>Fields remain identical to NVD data, and the CVE journey logs "Re-added, no changes."</t>
+  </si>
+  <si>
+    <t>Verify updated CVEs are detected and re-added during rescan</t>
+  </si>
+  <si>
+    <t>Delete a CVE → Change its fields in NVD → Trigger rescan.</t>
+  </si>
+  <si>
+    <t>CVE is re-added with updated description, score, and priority. Journey log records the changes.</t>
+  </si>
+  <si>
+    <t>Verify journey log updates for re-added CVEs</t>
+  </si>
+  <si>
+    <t>Manually delete a CVE → Trigger rescan → Verify journey logs.</t>
+  </si>
+  <si>
+    <t>Journey log shows: "CVE re-added during rescan" with timestamp and user ID.</t>
+  </si>
+  <si>
+    <t>Verify comments for re-added CVEs remain blank</t>
+  </si>
+  <si>
+    <t>Delete a CVE → Trigger rescan → Verify comments.</t>
+  </si>
+  <si>
+    <t>Comments for re-added CVEs remain blank.</t>
+  </si>
+  <si>
+    <t>Verify rescan skips CVEs with no updates after manual delete</t>
+  </si>
+  <si>
+    <t>Delete a CVE → Trigger rescan → NVD fields remain unchanged.</t>
+  </si>
+  <si>
+    <t>CVE reappears with unchanged data, journey logs "CVE re-added, no updates."</t>
+  </si>
+  <si>
+    <t>Verify rescan adds missing CVEs only once after manual delete</t>
+  </si>
+  <si>
+    <t>Manually delete a CVE → Trigger rescan multiple times.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deleted CVE is added back </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>once</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> only, no duplicates created.</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify identification for re-added CVEs</t>
+  </si>
+  <si>
+    <t>Delete a CVE → Trigger rescan.</t>
+  </si>
+  <si>
+    <t>CVE is re-identified with "Re-added" status for visibility.</t>
+  </si>
+  <si>
+    <t>Verify rescan does not re-add CVEs manually deleted for invalid CPEs</t>
+  </si>
+  <si>
+    <t>Delete a CVE linked to an invalid CPE → Trigger rescan.</t>
+  </si>
+  <si>
+    <t>CVE is skipped, and logs record "Invalid CPE. CVE skipped."</t>
+  </si>
+  <si>
+    <t>Verify journey log appends changes for re-added CVEs</t>
+  </si>
+  <si>
+    <t>Delete a CVE → Update fields in NVD → Trigger rescan.</t>
+  </si>
+  <si>
+    <t>Journey log appends "CVE re-added. Fields updated: [Previous → New values]."</t>
+  </si>
+  <si>
+    <t>Verify rescan for deleted CVEs when no field changes occur in NVD</t>
+  </si>
+  <si>
+    <t>Manually delete a CVE → Ensure NVD data remains unchanged → Trigger rescan.</t>
+  </si>
+  <si>
+    <t>CVE is re-added with identical fields. Journey log notes "Re-added, no field changes."</t>
+  </si>
+  <si>
+    <t>Verify rescan skips deleted CVEs when CPEs are invalid</t>
+  </si>
+  <si>
+    <t>Delete a CVE → Remove the linked CPE from the release → Trigger rescan.</t>
+  </si>
+  <si>
+    <t>CVE is skipped; error logs reflect "CPE not linked. CVE skipped."</t>
+  </si>
+  <si>
+    <t>Verify handling of deleted CVEs when new CVEs exist for the same CPE</t>
+  </si>
+  <si>
+    <t>Delete a CVE → NVD has another CVE for the same CPE → Trigger rescan.</t>
+  </si>
+  <si>
+    <t>Both CVEs are linked to the release, with clear identification of "New" and "Re-added."</t>
+  </si>
+  <si>
+    <t>Verify journey log persistence after re-adding manually deleted CVEs</t>
+  </si>
+  <si>
+    <t>Delete a CVE → Trigger rescan → Verify historical updates in the journey log.</t>
+  </si>
+  <si>
+    <t>Journey log preserves prior updates and appends the new "Re-added in Rescan" log.</t>
+  </si>
+  <si>
+    <t>Verify partial rollback if re-adding a deleted CVE fails mid-rescan</t>
+  </si>
+  <si>
+    <t>Simulate a rescan failure when re-adding a CVE.</t>
+  </si>
+  <si>
+    <t>Application rolls back partially added changes. Deleted CVE remains absent.</t>
+  </si>
+  <si>
+    <t>Verify comments persistence for re-added CVEs when NVD fields change</t>
+  </si>
+  <si>
+    <t>Delete a CVE → Update NVD fields → Trigger rescan → Add comments manually → Trigger rescan again.</t>
+  </si>
+  <si>
+    <t>Comments remain intact after subsequent rescans.</t>
+  </si>
+  <si>
+    <t>Verify log accuracy for re-added CVEs with no updates</t>
+  </si>
+  <si>
+    <t>Delete a CVE → Trigger rescan → Verify log for unchanged fields.</t>
+  </si>
+  <si>
+    <t>Log clearly states: "CVE re-added. No updates to fields."</t>
+  </si>
+  <si>
+    <t>Verify performance for rescan with many deleted CVEs</t>
+  </si>
+  <si>
+    <t>Delete multiple CVEs (&gt; 100) → Trigger rescan.</t>
+  </si>
+  <si>
+    <t>Rescan completes successfully; deleted CVEs are re-added.</t>
+  </si>
+  <si>
+    <t>Verify error handling when rescan encounters corrupted deleted CVEs</t>
+  </si>
+  <si>
+    <t>Delete a CVE → Corrupt associated data in the database → Trigger rescan.</t>
+  </si>
+  <si>
+    <t>Application logs "Corrupted data. Unable to re-add CVE."</t>
+  </si>
+  <si>
+    <t>Verify multiple manual deletes and rescan behavior</t>
+  </si>
+  <si>
+    <t>Delete several CVEs manually → Trigger rescan.</t>
+  </si>
+  <si>
+    <t>Deleted CVEs are accurately re-added with "Re-added in Rescan" status.</t>
+  </si>
+  <si>
+    <t>Verify no duplicates when manual delete and re-add occurs via rescan</t>
+  </si>
+  <si>
+    <t>Delete a CVE → Trigger rescan twice consecutively.</t>
+  </si>
+  <si>
+    <t>No duplicate CVEs appear; rescan identifies already re-added CVEs.</t>
+  </si>
+  <si>
+    <t>Verify CVE table loads with all details</t>
+  </si>
+  <si>
+    <t>Open the CVE Dashboard page.</t>
+  </si>
+  <si>
+    <t>Table displays all CVE rows with correct columns: CVE ID, Description, CVSS Priority, etc.</t>
+  </si>
+  <si>
+    <t>Verify tool status dropdown functionality</t>
+  </si>
+  <si>
+    <t>Select the dropdown under “Tool Status” → Choose an option.</t>
+  </si>
+  <si>
+    <t>Dropdown reflects the selected value and updates in the table.</t>
+  </si>
+  <si>
+    <t>Verify “Fixed In” field is editable</t>
+  </si>
+  <si>
+    <t>Click on the “Fixed In” field → Enter a valid input.</t>
+  </si>
+  <si>
+    <t>Value updates successfully in the “Fixed In” column.</t>
+  </si>
+  <si>
+    <t>Verify input validation for “Fixed In” field</t>
+  </si>
+  <si>
+    <t>Enter an invalid input (e.g., empty string, special characters) in “Fixed In” field.</t>
+  </si>
+  <si>
+    <t>Application displays an error message and does not save the invalid input.</t>
+  </si>
+  <si>
+    <t>Verify clicking on CVE ID opens bootstrap modal</t>
+  </si>
+  <si>
+    <t>Click on a CVE ID in the table.</t>
+  </si>
+  <si>
+    <t>A bootstrap modal pops up displaying CVE details.</t>
+  </si>
+  <si>
+    <t>Verify bootstrap modal displays correct CVE details</t>
+  </si>
+  <si>
+    <t>Open the modal for a specific CVE ID.</t>
+  </si>
+  <si>
+    <t>Modal displays accurate CVE details: project name, branch, release, description, etc.</t>
+  </si>
+  <si>
+    <t>Verify “Tool Status” dropdown is editable in modal</t>
+  </si>
+  <si>
+    <t>In the modal, edit “Tool Status” using the dropdown.</t>
+  </si>
+  <si>
+    <t>Selected tool status value reflects in the modal and updates in the CVE table.</t>
+  </si>
+  <si>
+    <t>Verify “Fixed In” field is editable in modal</t>
+  </si>
+  <si>
+    <t>In the modal, edit “Fixed In” field with valid data.</t>
+  </si>
+  <si>
+    <t>Input is accepted, and updated value reflects in the modal and table.</t>
+  </si>
+  <si>
+    <t>Verify invalid input for “Fixed In” field in modal</t>
+  </si>
+  <si>
+    <t>In the modal, enter invalid data (e.g., symbols, empty string) in “Fixed In” field.</t>
+  </si>
+  <si>
+    <t>Application displays an error and prevents invalid input.</t>
+  </si>
+  <si>
+    <t>Verify comments section allows adding comments</t>
+  </si>
+  <si>
+    <t>In the modal, add a new comment → Enter text and save.</t>
+  </si>
+  <si>
+    <t>Comment appears immediately in the list with user name and timestamp.</t>
+  </si>
+  <si>
+    <t>Verify multiple comments can be added</t>
+  </si>
+  <si>
+    <t>Add multiple comments in the modal.</t>
+  </si>
+  <si>
+    <t>All comments appear sequentially, showing username and timestamp for each entry.</t>
+  </si>
+  <si>
+    <t>Verify comments persist after modal is closed</t>
+  </si>
+  <si>
+    <t>Add comments in the modal → Close the modal → Reopen the modal.</t>
+  </si>
+  <si>
+    <t>Previously added comments are visible.</t>
+  </si>
+  <si>
+    <t>Verify comments are specific to the CVE</t>
+  </si>
+  <si>
+    <t>Add comments to one CVE → Check another CVE's modal.</t>
+  </si>
+  <si>
+    <t>Comments appear only for the corresponding CVE.</t>
+  </si>
+  <si>
+    <t>Verify history records updates in modal</t>
+  </si>
+  <si>
+    <t>Change fields like “Tool Status,” “Fixed In,” or “Analysis Priority.”</t>
+  </si>
+  <si>
+    <t>Changes are logged under “CVE History” with field name, old value, new value, and timestamp.</t>
+  </si>
+  <si>
+    <t>Verify history records show multiple updates</t>
+  </si>
+  <si>
+    <t>Perform multiple updates to fields → Check CVE History section.</t>
+  </si>
+  <si>
+    <t>Each update is recorded as a separate log entry.</t>
+  </si>
+  <si>
+    <t>Verify analysis priority field enables after CVE details load</t>
+  </si>
+  <si>
+    <t>Enter a valid CVE ID → Verify “Analysis Priority” becomes editable only after auto-population.</t>
+  </si>
+  <si>
+    <t>Field enables successfully after auto-loading of data.</t>
+  </si>
+  <si>
+    <t>Verify analysis priority remains disabled when no data loads</t>
+  </si>
+  <si>
+    <t>Enter an invalid or empty CVE ID.</t>
+  </si>
+  <si>
+    <t>Analysis Priority field remains disabled.</t>
+  </si>
+  <si>
+    <t>Verify invalid inputs for “Analysis Priority” field</t>
+  </si>
+  <si>
+    <t>In the modal, enter invalid data (e.g., symbols, empty string) in “Analysis Priority” field.</t>
+  </si>
+  <si>
+    <t>Application shows an error and prevents saving invalid inputs.</t>
+  </si>
+  <si>
+    <t>Verify saving changes updates values in table and modal</t>
+  </si>
+  <si>
+    <t>Update “Tool Status” and “Fixed In” in the modal → Save changes → Check table.</t>
+  </si>
+  <si>
+    <t>Changes reflect correctly in both modal and main table.</t>
+  </si>
+  <si>
+    <t>Verify modal closes without saving changes</t>
+  </si>
+  <si>
+    <t>Make changes to editable fields → Click “Close” without saving.</t>
+  </si>
+  <si>
+    <t>Changes are discarded, and previous values remain intact.</t>
+  </si>
+  <si>
+    <t>Verify error message for duplicate comments</t>
+  </si>
+  <si>
+    <t>Attempt to add the same comment multiple times.</t>
+  </si>
+  <si>
+    <t>Application displays an error preventing duplicate comments.</t>
+  </si>
+  <si>
+    <t>Verify error message for empty comments</t>
+  </si>
+  <si>
+    <t>Try to add a blank comment in the modal.</t>
+  </si>
+  <si>
+    <t>Application shows an error message and does not add the blank comment.</t>
+  </si>
+  <si>
+    <t>Verify modal behavior when no CVE data exists</t>
+  </si>
+  <si>
+    <t>Click on a CVE ID that has missing data (simulate broken data).</t>
+  </si>
+  <si>
+    <t>Modal shows an appropriate error message or placeholder.</t>
+  </si>
+  <si>
+    <t>Verify history records persist after modal close and reopen</t>
+  </si>
+  <si>
+    <t>Make updates in fields → Close modal → Reopen modal → Verify history.</t>
+  </si>
+  <si>
+    <t>History log retains all previous updates.</t>
+  </si>
+  <si>
+    <t>Verify concurrency behavior when multiple users edit same CVE</t>
+  </si>
+  <si>
+    <t>User A edits “Tool Status” → User B edits “Fixed In” at the same time → Save changes.</t>
+  </si>
+  <si>
+    <t>Latest update should overwrite with proper log records, avoiding conflicts.</t>
+  </si>
+  <si>
+    <t>Verify dropdown options for “Tool Status”</t>
+  </si>
+  <si>
+    <t>Check available dropdown options for “Tool Status.”</t>
+  </si>
+  <si>
+    <t>Dropdown contains the correct predefined options (e.g., Open, In Progress, Closed).</t>
+  </si>
+  <si>
+    <t>Verify changes to fixed in persist across page reload</t>
+  </si>
+  <si>
+    <t>Edit “Fixed In” → Reload the CVE Dashboard page → Verify changes.</t>
+  </si>
+  <si>
+    <t>Updated “Fixed In” value persists.</t>
+  </si>
+  <si>
+    <t>Verify undoing changes restores previous data</t>
+  </si>
+  <si>
+    <t>Modify any field → Do not save → Reload page.</t>
+  </si>
+  <si>
+    <t>Previously saved values are restored, and unsaved changes are discarded.</t>
+  </si>
+  <si>
+    <t>Verify large comments do not break the UI</t>
+  </si>
+  <si>
+    <t>Add a long comment (&gt;500 characters).</t>
+  </si>
+  <si>
+    <t>Comment gets added successfully, and the UI does not break.</t>
+  </si>
+  <si>
+    <t>Verify user name and time are accurate for comments</t>
+  </si>
+  <si>
+    <t>Add a comment in the modal.</t>
+  </si>
+  <si>
+    <t>Correct username and accurate timestamp appear alongside the comment.</t>
+  </si>
+  <si>
+    <t>TC_031</t>
+  </si>
+  <si>
+    <t>Verify invalid CVE ID entry throws an error</t>
+  </si>
+  <si>
+    <t>Enter an invalid CVE ID format → Save.</t>
+  </si>
+  <si>
+    <t>Application throws an error message like “Invalid CVE ID format.”</t>
+  </si>
+  <si>
+    <t>TC_032</t>
+  </si>
+  <si>
+    <t>Verify performance with a large number of CVEs</t>
+  </si>
+  <si>
+    <t>Load the dashboard with &gt;1000 CVEs → Perform edits and open modals.</t>
+  </si>
+  <si>
+    <t>Application remains responsive without significant lag.</t>
+  </si>
+  <si>
+    <t>TC_033</t>
+  </si>
+  <si>
+    <t>Verify error when saving fields without required permissions</t>
+  </si>
+  <si>
+    <t>Attempt to save changes as a user without edit permissions.</t>
+  </si>
+  <si>
+    <t>Application throws an error like “You do not have permission to make changes.”</t>
+  </si>
+  <si>
+    <t>TC_034</t>
+  </si>
+  <si>
+    <t>Verify application handles server errors when saving data</t>
+  </si>
+  <si>
+    <t>Simulate server downtime → Attempt to save changes in the modal.</t>
+  </si>
+  <si>
+    <t>Application displays a user-friendly error message like “Unable to save data. Please try again later.”</t>
+  </si>
+  <si>
+    <t>TC_035</t>
+  </si>
+  <si>
+    <t>Verify deletion of a comment</t>
+  </si>
+  <si>
+    <t>Add a comment → Delete the comment.</t>
+  </si>
+  <si>
+    <t>Comment is removed, and log displays the deletion action with timestamp.</t>
+  </si>
+  <si>
+    <t>Verify modal opens on clicking the question mark icon</t>
+  </si>
+  <si>
+    <t>Change a field (Tool Status/Fixed In/Comments) → Click the question mark icon.</t>
+  </si>
+  <si>
+    <t>Bootstrap modal opens, displaying a list of branches with the CVE.</t>
+  </si>
+  <si>
+    <t>Verify branches are correctly listed in the modal</t>
+  </si>
+  <si>
+    <t>Open the modal for a CVE existing in multiple branches.</t>
+  </si>
+  <si>
+    <t>Modal displays all branches where the CVE exists, showing branch names and release details.</t>
+  </si>
+  <si>
+    <t>Verify "Apply for All Branches" button applies changes globally</t>
+  </si>
+  <si>
+    <t>Change a field → Click the "Apply for All Branches" icon (right icon).</t>
+  </si>
+  <si>
+    <t>Changes reflect in the current branch and all other branches’ latest releases with the CVE.</t>
+  </si>
+  <si>
+    <t>Verify individual "Apply" button applies changes to a branch</t>
+  </si>
+  <si>
+    <t>Change a field → Open the modal → Click "Apply" for one specific branch.</t>
+  </si>
+  <si>
+    <t>Change reflects only for the selected branch's latest release.</t>
+  </si>
+  <si>
+    <t>Verify CVE journey is updated with inheritance for global apply</t>
+  </si>
+  <si>
+    <t>Perform a global "Apply for All Branches" → Open the CVE Journey for other branches.</t>
+  </si>
+  <si>
+    <t>Journey logs show "changed by inheritance" for all branches where the CVE is updated.</t>
+  </si>
+  <si>
+    <t>Verify CVE journey updates correctly for individual branch apply</t>
+  </si>
+  <si>
+    <t>Perform an individual "Apply" on a specific branch → Check the CVE Journey for that branch.</t>
+  </si>
+  <si>
+    <t>Journey log shows "changed by inheritance" only for that branch.</t>
+  </si>
+  <si>
+    <t>Verify changes are reflected in other branches' dashboards</t>
+  </si>
+  <si>
+    <t>Use "Apply for All Branches" or individual apply → Navigate to other branches’ CVE Dashboards.</t>
+  </si>
+  <si>
+    <t>Updated fields (Tool Status, Fixed In, or Comments) reflect in corresponding dashboards.</t>
+  </si>
+  <si>
+    <t>Verify error message when modal fails to load branch list</t>
+  </si>
+  <si>
+    <t>Simulate server error while loading branch details → Click question mark icon.</t>
+  </si>
+  <si>
+    <t>Modal fails to load and displays an appropriate error message.</t>
+  </si>
+  <si>
+    <t>Verify fields remain unchanged if no apply option is selected</t>
+  </si>
+  <si>
+    <t>Change a field → Open the modal → Close without selecting “Apply.”</t>
+  </si>
+  <si>
+    <t>Other branches’ CVEs remain unchanged.</t>
+  </si>
+  <si>
+    <t>Verify partial updates when individual applies are selected</t>
+  </si>
+  <si>
+    <t>Open the modal → Apply changes to 2 out of 3 branches.</t>
+  </si>
+  <si>
+    <t>Only selected branches reflect the updates, and unselected branches remain unchanged.</t>
+  </si>
+  <si>
+    <t>Verify field updates persist after modal close</t>
+  </si>
+  <si>
+    <t>Apply changes for a branch → Close the modal → Reopen modal.</t>
+  </si>
+  <si>
+    <t>Updated branches show as applied in the modal, and changes persist.</t>
+  </si>
+  <si>
+    <t>Verify apply operation logs user details and timestamp</t>
+  </si>
+  <si>
+    <t>Apply a change (global or individual) → Check logs.</t>
+  </si>
+  <si>
+    <t>User name and timestamp are recorded in the CVE Journey for inheritance changes.</t>
+  </si>
+  <si>
+    <t>Verify changes in Tool Status propagate correctly</t>
+  </si>
+  <si>
+    <t>Update "Tool Status" → Apply changes globally or to specific branches.</t>
+  </si>
+  <si>
+    <t>“Tool Status” updates reflect in all applied branches and CVE dashboards.</t>
+  </si>
+  <si>
+    <t>Verify changes in Fixed In propagate correctly</t>
+  </si>
+  <si>
+    <t>Update “Fixed In” → Apply globally or individually.</t>
+  </si>
+  <si>
+    <t>“Fixed In” updates reflect in selected branches.</t>
+  </si>
+  <si>
+    <t>Verify comments propagate correctly to other branches</t>
+  </si>
+  <si>
+    <t>Add or update “Comments” → Use "Apply" buttons (global or individual).</t>
+  </si>
+  <si>
+    <t>Comment changes reflect in all applied branches.</t>
+  </si>
+  <si>
+    <t>Verify error message when applying changes fails</t>
+  </si>
+  <si>
+    <t>Simulate server error while performing "Apply" → Click global or individual apply button.</t>
+  </si>
+  <si>
+    <t>Application shows an error like “Unable to update changes. Please try again.”</t>
+  </si>
+  <si>
+    <t>Verify no duplicate updates are applied</t>
+  </si>
+  <si>
+    <t>Update fields and reapply (same changes) to the same branches.</t>
+  </si>
+  <si>
+    <t>Duplicate updates are prevented, and CVE journey logs avoid redundant entries.</t>
+  </si>
+  <si>
+    <t>Verify modal displays only latest releases with the CVE</t>
+  </si>
+  <si>
+    <t>Open modal for branches → Ensure only the latest release with the CVE appears.</t>
+  </si>
+  <si>
+    <t>Modal lists only branches' latest releases with the CVE.</t>
+  </si>
+  <si>
+    <t>Verify apply buttons are disabled if no change exists</t>
+  </si>
+  <si>
+    <t>Open modal without changing any fields → Check apply buttons (global and individual).</t>
+  </si>
+  <si>
+    <t>“Apply” buttons remain disabled until a change is made.</t>
+  </si>
+  <si>
+    <t>Verify apply operations for deleted CVEs</t>
+  </si>
+  <si>
+    <t>Manually delete a CVE from one branch → Change fields in another branch → Use apply options.</t>
+  </si>
+  <si>
+    <t>Application does not apply updates to deleted CVEs and shows a relevant message.</t>
+  </si>
+  <si>
+    <t>Verify rollback behavior on partial apply failure</t>
+  </si>
+  <si>
+    <t>Simulate a failure when applying changes to a specific branch.</t>
+  </si>
+  <si>
+    <t>Changes already applied remain intact; unaffected branches stay unchanged.</t>
+  </si>
+  <si>
+    <t>Verify UI responsiveness with large branch lists</t>
+  </si>
+  <si>
+    <t>Open modal when CVE exists in &gt;50 branches → Scroll through branches.</t>
+  </si>
+  <si>
+    <t>Modal remains responsive, and scrolling works as expected.</t>
+  </si>
+  <si>
+    <t>Verify user can cancel apply operation</t>
+  </si>
+  <si>
+    <t>Open modal → Click "Cancel" or close the modal without applying.</t>
+  </si>
+  <si>
+    <t>No updates are made to other branches, and fields remain as-is.</t>
+  </si>
+  <si>
+    <t>Verify performance for global apply with large branch list</t>
+  </si>
+  <si>
+    <t>Update a field → Use "Apply for All Branches" when &gt;50 branches have the CVE.</t>
+  </si>
+  <si>
+    <t>Operation completes successfully without lag or timeout.</t>
+  </si>
+  <si>
+    <t>Verify audit trail for inheritance changes in CVE Journey</t>
+  </si>
+  <si>
+    <t>Update any field → Use apply options → Verify CVE Journey entries in current and other branches.</t>
+  </si>
+  <si>
+    <t>CVE Journey shows “changed by inheritance” logs with accurate details (user, field, and timestamp).</t>
   </si>
 </sst>
 </file>
@@ -380,12 +2259,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -704,7 +2586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116C9637-C94F-414E-B3C0-9DC42F9D1E04}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1041,4 +2923,2543 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004E7096-3E28-4C71-B635-75DF57A2122E}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="72.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.2">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2">
+      <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8">
+      <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8">
+      <c r="A24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8">
+      <c r="A25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="43.2">
+      <c r="A26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C32A9E7-4472-4516-8101-B806F1F7BD77}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="61.77734375" customWidth="1"/>
+    <col min="4" max="4" width="69.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8">
+      <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8">
+      <c r="A24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8">
+      <c r="A25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8">
+      <c r="A27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.8">
+      <c r="A30" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BF4D16-D408-40DC-AA8A-5300F65D8274}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection sqref="A1:D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="201.6">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="115.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="100.8">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="129.6">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="100.8">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="172.8">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="115.2">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="129.6">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="115.2">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="115.2">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="86.4">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="187.2">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="129.6">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="115.2">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="129.6">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="129.6">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="100.8">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100.8">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="129.6">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="144">
+      <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="158.4">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="115.2">
+      <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="115.2">
+      <c r="A24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="114">
+      <c r="A25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="172.8">
+      <c r="A26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="72">
+      <c r="A27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="172.8">
+      <c r="A28" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0527B3-5CC0-48EA-ADB1-2B134AC26208}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="4" max="4" width="73.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.2">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2">
+      <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8">
+      <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2">
+      <c r="A24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8">
+      <c r="A25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="43.2">
+      <c r="A26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52975CB-8D5C-45B1-801E-769887CB283B}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="61" customWidth="1"/>
+    <col min="4" max="4" width="73.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8">
+      <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8">
+      <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8">
+      <c r="A16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8">
+      <c r="A17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8">
+      <c r="A18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8">
+      <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8">
+      <c r="A20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8">
+      <c r="A21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8">
+      <c r="A22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8">
+      <c r="A23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8">
+      <c r="A24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8">
+      <c r="A25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8">
+      <c r="A26" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8">
+      <c r="A27" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8">
+      <c r="A28" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8">
+      <c r="A29" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.8">
+      <c r="A30" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.8">
+      <c r="A31" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8">
+      <c r="A32" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.8">
+      <c r="A33" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.8">
+      <c r="A34" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8">
+      <c r="A35" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00802DD-3ACA-4915-9813-F9B64A859C78}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="65.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8">
+      <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8">
+      <c r="A16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8">
+      <c r="A17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8">
+      <c r="A18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8">
+      <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8">
+      <c r="A20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8">
+      <c r="A21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8">
+      <c r="A23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8">
+      <c r="A25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8">
+      <c r="A26" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>